--- a/test_datas/login_suite/login_test.xlsx
+++ b/test_datas/login_suite/login_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PO_UI_Test_Framework\test_datas\login_suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2050B30-AD43-430A-AA95-8B1B63AD6AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BEA401-524F-40F3-8BE3-C9607B2E2A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="1848" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="1080" yWindow="1536" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>username=admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,7 +489,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -571,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -582,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -591,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
